--- a/halogenase_result.xlsx
+++ b/halogenase_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canal\OneDrive - Cornell University\Desktop\Zhao_lab\PENCiL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/jl3789_cornell_edu/Documents/Desktop/Zhao_lab/PENCiL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D68EBE-857D-430D-857E-BA4F6C21468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E2D68EBE-857D-430D-857E-BA4F6C21468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D0D9A8-441E-4088-8425-97F2D6F8FFCF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{0E2EC60F-032F-4A73-8115-67B98CD30706}"/>
   </bookViews>
@@ -7596,8 +7596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412D05A8-6F74-B340-BB8D-F9E7C6CE8ACD}">
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7606,7 +7606,8 @@
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
     <col min="10" max="10" width="3.6640625" customWidth="1"/>
